--- a/land_admin_insert.xlsx
+++ b/land_admin_insert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>STATE</t>
   </si>
@@ -58,88 +58,424 @@
     <t>LAND_UID</t>
   </si>
   <si>
-    <t>{"cipher_text": "d3UXmLvsFwRyFw==", "salt": "Yjs063/v1C/UgH2fWPBhfw==", "nonce": "ki3YFVD/afz22Lxp7M7HfA==", "tag": "cLQf1AcBWPyVrWdDjMT+Lw=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "bgaFFB/HiAFGbRHYRhM=", "salt": "dswG7LvC4PaUN7TrIiyi3g==", "nonce": "heSykiPJK/zC/ta6/lZLcg==", "tag": "cIwmCm+EWN86egxf90gwDQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "RQI509OJJwZGQYY=", "salt": "giJ2dZTo593B9gXp19ANdA==", "nonce": "YkGa4L3+FjMe5LWTDXtagQ==", "tag": "vpJLT1boxApBTqXMDPEzvg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "Ajp5pbo=", "salt": "Xl/Mdq3zIEXhGxQYFZl1Aw==", "nonce": "usOQ7kVZuypys21URi9A9A==", "tag": "HCNnyEUR0+3Li6OwXxTLHQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "p8KbO7dTxxjcWxEPnQ==", "salt": "DApyn/pWAnJtP4UNX2Hgxg==", "nonce": "jogG8VS/CSoUm5IeuSA8wA==", "tag": "bklMuFEvmKvF/8yQh5GfPA=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "", "salt": "YkQj2ecwXMwjQAPFVDVH4w==", "nonce": "IY9rWBJc7bzKz7+0p2cpZQ==", "tag": "eincuadOWbT2jtaEr0diWQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "", "salt": "ULuKwbYYe1KPQh1r1A3aog==", "nonce": "wrlH2L322qJRlJXnMr0LUw==", "tag": "Plksgh4/dpZcBez+BMlUPQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "+zwfcAtRIrkkge0=", "salt": "K+7hsF3a547fGNOuLWJUzA==", "nonce": "uqyIBTAGV+FUoeCj+oFRmw==", "tag": "tpBxQHSAtASrwEC7reijhw=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "bTs=", "salt": "U411q56PrPSzPLz3woWrYw==", "nonce": "WOYSL8fEu+M8N/Jqbt7bdA==", "tag": "0oSDogz+b9maVyL3okxD2Q=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "dL0=", "salt": "OlUMUBBdKXMfOqkWG8okUw==", "nonce": "UQLMaLBQN0U7cwadf8ltTw==", "tag": "wqNsrgwbthOYbuiS1rX/VA=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "jAQ=", "salt": "WqT4W3w48w1VPLxH0h07dQ==", "nonce": "XXDlDXHFfCz4z+3lwmt/1w==", "tag": "qeLzH2JuiDsfvD+0jpLAZA=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "mlK7f1cbDg8=", "salt": "kMRUI82sm1biq8JV/MP6Dg==", "nonce": "8vQh+E0iQZEZgdHQaN2Cpw==", "tag": "vgGcXTtwiwPl+XnwDEoSxA=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "IGhE", "salt": "Z9Cwrx2iA0RCets1dKvv3Q==", "nonce": "AW/kw9MET/ou6jVS+h6wlQ==", "tag": "Zfa8YoWIeQ8lwyhOK0PUcQ=="}</t>
-  </si>
-  <si>
-    <t>tamtirratrvan36542p</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "oXEd2k9xY1GhmA==", "salt": "KDAA1H9ckYaGdLjA+lIHdg==", "nonce": "aJKa1W2HEAyPLJ5infFBIA==", "tag": "GWJRou6enmOchd6xaoe9uQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "Y/7xwLZfN8dMIw==", "salt": "wcgtt4wM6edIUPEyR+0r7g==", "nonce": "9S4xgoBhnB+ofM2TN4KpIg==", "tag": "KCK7zpsoV0wVyjfVvL70cQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "Lg3a9egMk0pMvGg=", "salt": "iY2t6j3ZY1/mTF7tnNrARg==", "nonce": "DCU1U4sXWdAiH+CDGe+81A==", "tag": "H934jz0lTuSmGNAEaDgjsg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "SJSn/1Y=", "salt": "L/tdFY16YbpePwMmLZtS6Q==", "nonce": "Gje4PDvwm6I5GQ1ozCGDPA==", "tag": "TjHegx6eu0ASy7rtO/lNBg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "VDF6cOx/cvlHgJhMoEY=", "salt": "maE6aqNkE4jz1IAtrrCh0A==", "nonce": "wZghjYkdQD3R4nV8ep2I7Q==", "tag": "bWWx23HlqYBjgw2jwztMig=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "", "salt": "4D73YrjCtrfPVD4jODKiew==", "nonce": "/1TEWVoO+QS2wiiZsnHKIw==", "tag": "zybP/iTmYCLIIvdbBiDA9Q=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "", "salt": "vA/FuRDztxADgxdiUTnflw==", "nonce": "coUv79Q8Az/fK0fRPB2+0Q==", "tag": "FE8htjK3gu5puMQ6kHW/ow=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "2ldl2HN8", "salt": "KA/taRRXqadVlC5tWNgl4g==", "nonce": "cmd5jUYy7CgVNd8sx++YOA==", "tag": "QVXB+5jQ7R2WzfpkrSBERg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "jGE=", "salt": "IFF/dBs2vGzelJQA/J0UDA==", "nonce": "K7Qk6/+4gCUQ2T0u46ZCbg==", "tag": "htVrnkmLNFTCM52FcR8VFQ=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "TQU=", "salt": "t67OF3UEjK+cU8hL9Nl0yw==", "nonce": "zK/9w+hjKYG+1TN6f6Zk1g==", "tag": "Bn63dLfrmwocrxZlhH/QCg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "Lg4=", "salt": "N7DExmXDB31VgXk49nZaKw==", "nonce": "WsHiU78pbOwe0GuItMbzKg==", "tag": "S/e3KmmzVOE3F0fxbI6tyg=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "WPMF+UwdGhs=", "salt": "R/LRj8HCYdQOPbo/rW8Z8w==", "nonce": "EN3gLIIC3dQUVRffXbYseQ==", "tag": "0MyzGx0bETBekjY9nBYq0Q=="}</t>
-  </si>
-  <si>
-    <t>{"cipher_text": "Hd4=", "salt": "YlpyYaxOBeu6iH7aoprzCQ==", "nonce": "zD9DKnKfPHg5xhJEi9C1FA==", "tag": "p4aSm/O17wcDishueXGMtA=="}</t>
-  </si>
-  <si>
-    <t>tamdhakawrvak16244a</t>
+    <t>{"cipher_text": "o1X9Y1JTHu/EUQ==", "salt": "WMVlatin3x3Qg2LKKZkHHg==", "nonce": "Sm7hZ9Dfcrh+6b7VQ0yWlw==", "tag": "tf1UjLHs9hdbqMCFHYeofw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "9EnDrusNWfDr70edG6o=", "salt": "I+eYzXVb7pE5aYCyUnHifQ==", "nonce": "fhCBBs2GTEJDKWB0Y+TqRw==", "tag": "+5s78pEw2C/JcZO+pK07iw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "g27y/fNTK8vb4aM=", "salt": "+W1nmJGq7FB59khcURB4Vw==", "nonce": "wfvKkgw/3ufJfWgjSlOtWg==", "tag": "tvTZ3IwAHNPmKhuiUzkHrw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "+s35Tko=", "salt": "AK0RfoPoIOQI3Fh23OlBxA==", "nonce": "uxG8tnXB8o1u5ugAcaeOTw==", "tag": "gYtWMvKhmyZ/d2mHf+OFlg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "8Sd3OVWK+kR8h5vIq2l//r4=", "salt": "f7pkb1XptXhoRMZ5+tUFMw==", "nonce": "KyTWiTX4w438d+rg/zoHDw==", "tag": "4uNzRXpokmN8Go6yZLXwkQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "x2/35zGePdQfPXeGK8DQ/A==", "nonce": "e06tt4F+EvtonHfvNmkn/w==", "tag": "4l2xKcVcr9gSWkhZel0BJw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "xEq8H2SzZQqe9t/8mNYtIw==", "nonce": "HvSWoIN1ds/CcKXehjxLpg==", "tag": "gMEQpzo3MPhcUsHh709F5Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "kr0rKw==", "salt": "rQtILI7iKOc4R4sZWh4RHQ==", "nonce": "XVLe3DRce0t44SUNuIPNXQ==", "tag": "cKGZstklrtZC6O7K3aOkrw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "pQg=", "salt": "zfE+i8wv0nVYzHLX2YgLOw==", "nonce": "jjPqidfpk67Jqwv4yxPq2Q==", "tag": "5NXsn88zFCq5Ofvu5uPKCQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "8to=", "salt": "yq6O5N3KzOlqCfee5Q3J0A==", "nonce": "a2VRj9H5XnkqVONDcof7wQ==", "tag": "LBqEMuomMHrz1guPFBIS0Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "jh8=", "salt": "EUmdz2yU82RZ3vcWFKS7sQ==", "nonce": "sbWUr0abo+Gl9tMRIhL8/A==", "tag": "Ltsi7rnMf4/v+FV4azXo5g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "s0JA7BfpGNo=", "salt": "lRVvvPu3IGDORtERnMuh5Q==", "nonce": "Q8dFGxPJfSL1xI91O2+UVg==", "tag": "fJMZdHsjkuETTCmw5mpaKQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "HkOv", "salt": "zcA9VGzC1hW7utXNhHOlcQ==", "nonce": "+FmgdGMvDrN0kFBVqy9Jlg==", "tag": "GBSWPB9XvBSxI9kdxRlFWg=="}</t>
+  </si>
+  <si>
+    <t>tamtirratrmel20805p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "C8yubj8XY58zLg==", "salt": "Bza2KQpwmNQVOY9Yd/uetQ==", "nonce": "HBXp+cWWqhD+sKpfwAF5xw==", "tag": "Cr82p1nQ7E4S+Yabtwue2A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "/nNryQ7gTBo0SyKE", "salt": "TdtIrMvzUmQDdbxVKWPfNw==", "nonce": "uTcEhiZgrIB16TAhydwNKw==", "tag": "iIFIBqww/beBtUxoN+SmCg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "KVSLBAOGgdxQqso=", "salt": "zVaWmG77p9X0SmKz7mymGw==", "nonce": "bVlM9VZH+XIkzxdtCQqdOw==", "tag": "a+i2niVzXfeF3mGblTcV6A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "+tBR92E=", "salt": "mTyebM+2EQMpJGzh+uMGLw==", "nonce": "VYtDqE/htMRGeBH9lQc9Zg==", "tag": "vk2eI/RCgcDHjrqRwclT1w=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "93Neo3L6", "salt": "N3jbrFQ34+OU/LyQVLwbIg==", "nonce": "jNsyoW0nwUT9aMo7OPuBSw==", "tag": "PQZ14ObNx7CF4HdwZyIV5A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "HVUmmrDePqRwka5ylpZ0Ew==", "nonce": "o/3311lWEv2tGi0vXNbvRQ==", "tag": "M4XayYm+a7133VYtsv9RmQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "s6qYhaVjROzY6TImSM1XSw==", "nonce": "jW9BjLdB7nnIUT9M1af8LA==", "tag": "SnUklu3bJdcqkkutH2Ta0A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "MInZvQ==", "salt": "puDFBv8SpUrOpwfhKOZ1xg==", "nonce": "bW7BvN19sRh8iz+VMkeAUQ==", "tag": "SkdrXkAwzYoWFXyBGrNo3g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "k+I=", "salt": "Re5faV+3u9SUfOm8aPHbxA==", "nonce": "T2OU7ysD37/KDrtyni+ARg==", "tag": "UTZofPsRIchMWmWtppKLmA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "yxY=", "salt": "3YxAKIV5SMKdhodsAgovBg==", "nonce": "/iaAWF1L16TAxo/arwqiew==", "tag": "QFI0/D30v6GRYhhjSdowug=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "anc=", "salt": "j6txNX+P+friAwPtpwVmkw==", "nonce": "Ccbooz/S07BRkDvMiYJR+Q==", "tag": "BtCKWgd0ECCUWqsSTgzYRQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "HzOqFO1nIKc=", "salt": "a0Xlz7HzSwzhfNPC+1kSCQ==", "nonce": "jYMisNdfy3bm6pkokhYPww==", "tag": "74pRXYj1+/Bb9kOcMzIVwQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "ALov", "salt": "Tqv2cZ+eGfwGhDs+4o5v7g==", "nonce": "CQ5cvRPv082mLMm82z+CvA==", "tag": "Svm5kA4y7nELSq7NYFNboA=="}</t>
+  </si>
+  <si>
+    <t>tamnagratrkot10804p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "37XQlRts5CxXQw==", "salt": "h3LWK8AxcmuEyNB5oOKDKw==", "nonce": "vgUxdOfFjv/efH+WyCTo8w==", "tag": "3AB3/9eWmpDhhMFWmV530g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "EY7cTm9tOI2/7A==", "salt": "tQDUzoWd6p8NMqUjUFoHBg==", "nonce": "BTENJQn1eHDQJ+YR/ZLW9A==", "tag": "1VNm+HRa7hjhV4bRAczzPw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Ti2s1QYuHAN5X6I=", "salt": "zgndOKgNRGDzlTKvPxA7Bg==", "nonce": "kdN/QfsuW6Ff6u/I5u50hw==", "tag": "mqRX2VbDhKOkjhUv8W6UtA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "B7guEX4=", "salt": "MRudI0MO8Tc4V5hBYJ588g==", "nonce": "X2A3S39qtp+qsvebkVLEYA==", "tag": "GnADmTsRQ0f/Fm2r3XkAUQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "zR4mNK93oW8=", "salt": "ZjXhPpZoOnn+OWt78y52CQ==", "nonce": "2xnZ48votJnmnlltwKGFVw==", "tag": "glA9bSBbl56/biGD8UNRnA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "fyibKMtsqXRxEXCLiyxKMg==", "nonce": "JdOIw9pPq3f/J6tOg9cJZg==", "tag": "BE1Uqe2rVQocGSUhzQOZXA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "j095SMUyYAwe0SP3XCNh5Q==", "nonce": "8kIjkfHkw43V4ZclMHaGgg==", "tag": "GXHi1lb5sZiHoPCepgFp8A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "65gr2FQxcQ==", "salt": "gDRyqJV+FmfRF+LhF0brEA==", "nonce": "LBXuTL8QQrbCYg1M99InSg==", "tag": "LowiBcHRJX5LPA7duZsu1g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "hNY=", "salt": "PpwYSVXpJNAf3fnA17RqSw==", "nonce": "BZ6lHNgVsrEiahub++1TCQ==", "tag": "yxe/A3/+Cef00e5+VEIOVw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "y0s=", "salt": "Xr9jwea+te82TveE783gfQ==", "nonce": "sNJsXVSOHp8irr+ou4JD1w==", "tag": "mQKkDx1fUhn5rO8eGJk7qQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Aoc=", "salt": "MrBjGUaVo5HU48g28aT+Qw==", "nonce": "uVWdCU3zRlSF9CkKEVWMQA==", "tag": "KEzTv9KQ4rK3j7QiSRvJzg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "WrV+LcsQJqs=", "salt": "ngYt3whlBP8VoKw3oIqcYw==", "nonce": "5OQWFFKq39HyGtYjPAQawg==", "tag": "991UthidVOZCmC618A/1zA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "DFjx", "salt": "v+HsqVwUjo8FJaKBxlvPxw==", "nonce": "OVzO9dPwQiUKNvbsIbeloA==", "tag": "l7DHwSlI5jFwuMj1tBlLiQ=="}</t>
+  </si>
+  <si>
+    <t>tamthikasrala30605p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "bTL/yF7PirZ2/Q==", "salt": "/lZpj5NYcFVdgpZh+k1VXQ==", "nonce": "gVZbUdCK06vCfGqq7W2+PA==", "tag": "CxRBT85F6FkXRwKw7l6ZHg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "0BiP3Zs9T4LwRlI=", "salt": "rLQtLerArcR7svUjmJ3wHQ==", "nonce": "sCEh42fudqoh9mzvBV97Sw==", "tag": "7TZ1ifPVDjlwYiXvZ3UZ0Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "t4sRTCqWENI5qQA=", "salt": "gQj1F8wv16gYmkh+wK+O8A==", "nonce": "4vwrC2GJT3DlWACW4DurtA==", "tag": "nabW6m7e2uWQ0iQgAMGvXw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "p0bEIvM=", "salt": "z9EYzKZdTOwm30sdo0BNPA==", "nonce": "z+k8N0N0YSRRYNjrtcdeiQ==", "tag": "FmPSb03DX7A2Tjwz290kDA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "QjkffdaSjxk=", "salt": "Na0eyIxJOZY2Q9kRW1V0Aw==", "nonce": "p/7KSGy2dlwwW39Ah78o3g==", "tag": "M8/w3VAkqycfXdcb/9JY/Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "g0HzkFliHsp4fdTSskfLcQ==", "nonce": "k5bC4mu4weuHdkE9m6uUfw==", "tag": "um+kllllnx/Hr0lS5OQswA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "lSD1DBOaH0aS4e/yb3HNuA==", "nonce": "dWbwoCA2xA4VshQ9fxnLwA==", "tag": "kqN0V2uEyIpf5v452bPyPw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "1vrcVvtDHA==", "salt": "nZ9Wow6gor5wY8BCti1hMw==", "nonce": "x6/FyiP0R58yzKYPezOI9w==", "tag": "O/6pcI11aSLhEOxV6qiAvw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "tbQ=", "salt": "IvHx5zy67zcx+SQlccesJA==", "nonce": "U+Sg74azlbJa/Z6xXh+iNw==", "tag": "DbuRBp5POokmTDtyxGkwvw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "acM=", "salt": "l5Mi46RG1aBwkSiktciS1A==", "nonce": "8bcZojn22oH9fQE981kZwQ==", "tag": "etl2cRaoRC88q7D+VAa4yA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "NGw=", "salt": "ewf1NsNTONvSFvZTdlDLXg==", "nonce": "2YL2LC0kTCt9r8MXke5TTw==", "tag": "DCYfWs6zm7jVTRCc/gW6+g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Mrls7hnPXho=", "salt": "BIfPANx4t0G127BeVnd/vg==", "nonce": "mv63f+WvgBKiqr+xUEmYQg==", "tag": "nydFm4FJfXXG5T0MYxT47g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "jQYR", "salt": "C3U5pNVeujk9RaQNj+jkSA==", "nonce": "NKHKozB6z/Edcqvwh8boQQ==", "tag": "y74ZbMmUamoCekDie6uwLw=="}</t>
+  </si>
+  <si>
+    <t>tamputratrala10703p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "SZOoVijt860M2w==", "salt": "voZhxDEGS2jxDKW9SKcZ1w==", "nonce": "ilA9LDLVtwjrEjvWiEUqtw==", "tag": "xAaMWo2dS1gC/0/+1IG0Rg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "IsXdE2ZG", "salt": "RerkBRx49xGf1LAsQdsQKQ==", "nonce": "wIlAQEcHaXT1E2bjkLqmTw==", "tag": "xaPkixvZnYXmBGTAB8kwiQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "V9I1chasUzXuVC0=", "salt": "GYP5uQfCChscTJo75Z6Qeg==", "nonce": "FsHK5P91dmdZTA8gbQZjug==", "tag": "aJa6Udkj2WTCR+HWLQUzUg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "UC9xVO8=", "salt": "A9m+ucaZ3r0Q59uo3bsCtw==", "nonce": "sukuKEdcp+8UcuNbhQJJsw==", "tag": "FPkfKZFsa+rouzmff/AuvQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "T0bEI9o3YQXG", "salt": "1RZYty/cFvglXH3tyBaRXg==", "nonce": "2hnDAT60iHI4gE+2WNgsjw==", "tag": "oXZM3lDN4u/TFjFhkPwQCw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "hMqkjo28WatXNyEFxq+zhA==", "nonce": "oHOVDzyKJc4URbI3C2T/WA==", "tag": "gn/c6LSSV4iRzFWVw/4PvQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "b1Jq57J0Esr2/nQ9/N7WcA==", "nonce": "uxAlrapZ/7n/ESiy0hjYEQ==", "tag": "ei+IFFVsuuYjK8dQ3yd6qQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "44qIywkLcQ==", "salt": "hijGaVA3G6D5JW9OAThwDA==", "nonce": "xugMttECenNwQjWvcIYb6A==", "tag": "4CImL/MqqxJ3YBD/MUbYeg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Dh8=", "salt": "sYVV4Kj+G1lfDdfHcc6/Ww==", "nonce": "K4MaUtTBqo97bRhezcrSlQ==", "tag": "ZK1hHH3CQ9nKoud/s/tCSw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "QM8=", "salt": "fYu0bHCtHVPrDrANjWxSmw==", "nonce": "rGfjpBkJYbDtBdcHqI8JZQ==", "tag": "bo6+KL3vWG6tY8PXgNAx9w=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "9lw=", "salt": "Ex/SVbOv6UtFK5zkjF3uAQ==", "nonce": "FKmcNWUYV9CRSOR9miA7dA==", "tag": "DtbQjJ+WICoMKUv/pn5IRA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "SvyIodQaYdI=", "salt": "ViYL1zfy4l1mWwHO87pBLA==", "nonce": "+5Ixmfko63XlWolailkEOA==", "tag": "PtSTWAbe58z0PaP4OO2aBg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "R8WE", "salt": "KYKg8bQSMmaeJKatExTmqQ==", "nonce": "FJvftUaaY4J48/C6+sBzDA==", "tag": "sYpO+RhMxtPKY41WWBNcuw=="}</t>
+  </si>
+  <si>
+    <t>tamtriratrvad40804p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "f2ofF2sez9t7fA==", "salt": "nx6gi9CUb227TaX5s7DJ9Q==", "nonce": "ASMeC8kImvy3M3sNy6SZlA==", "tag": "8WrN6AiIjcqnF1TXAdXDwA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "jpftR1G2k6XRgXU=", "salt": "AXjCLqLwTMlAX0vvxawVmg==", "nonce": "63GjZs/7oKN7u/CvqPdCDQ==", "tag": "zIT1tLE425u29FZk/RPpAQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "r73z8EQ8obmJYuA=", "salt": "ayMmBdyDR9a2nMRVFIiw5g==", "nonce": "F//nI0+X00YQom/sKmcdew==", "tag": "sdjzvejvp3EAScqkyEtrrQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "7AdAgsk=", "salt": "pHgakXJbMjvUwNbtdDDAhg==", "nonce": "z85c88sJ0DtPS79kGKZ5og==", "tag": "h+uYqQgNOrqHDp3nAdtDFg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "dHghHO4T", "salt": "uEFWDUkvewcIrumkh98gEw==", "nonce": "Xw4Pm7MT7PGh9h3TFG61jQ==", "tag": "xRptoiRGDy2Qnz2ctTrjZA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "57+VIVMrZsV1cB8eFwYE4Q==", "nonce": "jMQ2uQArMW9eOva7WDoBFQ==", "tag": "j1+66XrWQwFo+34rPeivEQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "fsUW8PY23YRSRCwHzzEQVw==", "nonce": "zqw6y4DjYzfnCKppX0PIrg==", "tag": "vc/gUdrN5Z05sSVPpyjbfQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "kuohU8I=", "salt": "pCiGung6+ZMVqkHj3Y4/5w==", "nonce": "wpERGXrsIs4GvY9IuME//Q==", "tag": "oG8RIo/H5UZsZ7iSbtvhsw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "caA=", "salt": "iWo2Y6NJwtQxtEQsdBu3Yw==", "nonce": "bbBh/k6pQJ19KsjOXJzRpw==", "tag": "qYBZEOxBGhZrhTqWwgWC5Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "0Pc=", "salt": "kHuy/TiH14qfWQYDPAiRrw==", "nonce": "+zGiOFhd3oJNnlrNXgCPTw==", "tag": "kKy3+FYwch3H3mow0v97Bw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "7gU=", "salt": "2nUtJ0tV/dHEcUZPmVe5TA==", "nonce": "Usy4yu7jekKEKNtA7LxoxA==", "tag": "amaZU5+2/6W27h231qMTVA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "mbHG6yaLYJU=", "salt": "3b2wJcjmcSaVBuX8zGxrAw==", "nonce": "rq7Xp1PMI1w3/59IEg5fnw==", "tag": "tLd95mfAYzYqNmI5tizUUQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "G7bE", "salt": "znLW0zCC1KVaBaKTDoS8TQ==", "nonce": "8xkwEcV4fKlx8j/IvA/s3g==", "tag": "FfYptvDoL0E92SMS2/s0SA=="}</t>
+  </si>
+  <si>
+    <t>tamputratrkot10804p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "pXd4kz4nhbl0HA==", "salt": "eihDrJyrA+Op6Sy32BNGXQ==", "nonce": "QW3zBSmrJz2pKX7FTxJQjQ==", "tag": "T//XjSdnfM1engWJLOTIzA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "t9EkH0yIW644xRnx", "salt": "7UjaoJLp3Wo/Xs9805eKgA==", "nonce": "PIwb1EqBafIZ4IbGmOux7w==", "tag": "Kt4XhS2AqGJqWWWV4QN+pA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "1Do2vFrjUt5bJM0=", "salt": "A9uu9kzsCQ32kZOIuFppXQ==", "nonce": "Ytzkq08w1keu04XRssLptg==", "tag": "tp3hpb+haLhTKhm3yzFQSQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "SY7twDs=", "salt": "V53hdBj8nam58bRKk8ywKQ==", "nonce": "qM3zDkSz4ffqI1p1S1zn2w==", "tag": "D3dGeSDZzeRdKK+atF5eCg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "zWg7bhNz", "salt": "eaOAK0xSgES1W7uza3QrpA==", "nonce": "R3Gf+OMmtr9YJPKrlgSrGA==", "tag": "SQ9VFpcQfb8daxaAa9dBxQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "sj6kCPaF56ugFiAPyaXZyQ==", "nonce": "7D7ODwOvHQ3kLtIzy7dOag==", "tag": "9Ghqx7CQOSCmtGJ9NbvsIQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "Po0duV+n6vzfzFaTgwVjjQ==", "nonce": "y3S57XG2RPUDXU01nz2krw==", "tag": "arR+NyDox7ILEkezjblKpA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "D5ucm1jrcw==", "salt": "LozE/Vjff3K9SCI4TDHRag==", "nonce": "MUX9zcbscULBLaKmk1BmEA==", "tag": "VieAL3Q7IAanvrYWr2Xvbw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "bWc=", "salt": "Mdq5Q26uivi/4JDIce8r2Q==", "nonce": "X2xok+oTSjrhqyApCsxAjA==", "tag": "+9MAi5gQcJcKjv1MlqPTcg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "2Bg=", "salt": "sddGi6E0nAtYTm2wPGM/vA==", "nonce": "W8BJ5bBmN83uAQUCqWkN/Q==", "tag": "iZKAFWOIgEVbII2miKLhCQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Vug=", "salt": "/Iv5tnehCAeiYgZUsTvw/w==", "nonce": "NX45KYgV3LJYJQLGVvTAfg==", "tag": "6mh7Am+WUGsHXZYC63ZOrg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "ecXJkPXH0R8=", "salt": "BszkK9KpW9QH63bDJCfg1Q==", "nonce": "dNdkYEkJGJIkcK0ysqU3KA==", "tag": "euCkTPTtoQUM4Tx7h1yFGQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "owKn", "salt": "ISuieKTCCIBKsxqEKRVPfA==", "nonce": "/Sn4BswRkT9n8qD2sEHz/w==", "tag": "HgUPDESiPPtB3TVP3TpAog=="}</t>
+  </si>
+  <si>
+    <t>tamnagpadrkot40604p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "tecUiRI2WhwlBg==", "salt": "dKmFHMvwAirR342yyR4L0w==", "nonce": "vDHx6yqDlCyjmIEzIA1bhA==", "tag": "bQ7ZD1p/hW3v0XtZjAHfJA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "B3gA0KRvf+Sw8Q==", "salt": "y7bU4Q4Iz7SihcV8k7wmTA==", "nonce": "YUkEdmsktmzFE7Bd59J6Gw==", "tag": "LyzLcqYM9OFYKtxZ3kJyzQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "IKaTiIXHYCWPGwQ=", "salt": "ovw2B6DqATZCgAFcTO6Jew==", "nonce": "rAlePh6n6n8uFB1KC5EuFg==", "tag": "oecjoSS4V395I68/QQVHgw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "vjKgwUQ=", "salt": "abmibAFa5aOW3PHai+Sl/g==", "nonce": "hF+OES0ds+DrHN519Lr0OQ==", "tag": "Jw6ImClUFppqdIpGduYTfw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Zc2dsDnE", "salt": "X47jKzer9KVkXQBr4DF5SA==", "nonce": "fdPV4aj1VrL8VSWezbmq1g==", "tag": "5T472Vg8owmUooj25rJQmQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "P84nBLflMk/ZwRJaCA9pRA==", "nonce": "BIxZAkR01Egk62kq/s7b/A==", "tag": "M6zLZE15u436AR4QDi9r3Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "c4tBA1BHsO3Ekvfjy7hmbg==", "nonce": "PWnmOC81n+fSXxGqjuHttg==", "tag": "9o0dw2GpyaTpdWGhw9vpjg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "hzA6IAEUSw==", "salt": "Ffylr44ia/Y4p1RjRIu/RA==", "nonce": "aBsPegrE+nsJe/kk2LpQZQ==", "tag": "UbyOW9O1+kWRMh/yHD6lcQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "31Q=", "salt": "F3zq7P79DQqwnc2AJMcUsw==", "nonce": "CL3mTpN37vkOfC0P8cyi1A==", "tag": "1p8VygUjIwaGFvuNqryEKA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "7ak=", "salt": "jjRy4mfaiGITRhMbpzQBDQ==", "nonce": "ipHlX6vCUnds+6Jf3V2aBg==", "tag": "SJaL2y50ijl4RWByLEkoTA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "D/o=", "salt": "qu0MPq1DIpmDDXw0veeT+g==", "nonce": "ifck8v3W0CAPT3dvJHGpWw==", "tag": "p4NpwdvIfSen3eha7he8Ig=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "5tRUSbAduI0=", "salt": "x7KGjr/RD7ds3AFQ0nrD1w==", "nonce": "HN0w7zI4S/3PbSMQdRetBg==", "tag": "oVkjiNLK4ci/+ywfb/YYCA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "MWUx", "salt": "GSvozBXS9yjwRvv52MjwtA==", "nonce": "A4ASlpNu5PiYGzL8NxnHPw==", "tag": "4PkWPFoTA57E/g/AWDMYTw=="}</t>
+  </si>
+  <si>
+    <t>tamthipadrkot10806p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "M8RLR/PTNTgbmw==", "salt": "y0/Ur7/mOyYLUDyqdVqG4Q==", "nonce": "EZNRHdt1txKhZftqwwIPXw==", "tag": "M7Z16r0mf3Rw1ldzOpQg8Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "PB2PEJSMFOi6", "salt": "JVLRmhtLWZk+17rP1YtetA==", "nonce": "ZsROgamEgnBvPVfw4BcRJQ==", "tag": "DDtJBY1K2yGanTCEsV2fQg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "lKTDYsO0HyhObHYHsA==", "salt": "fOQEllCHTQNdrEhSFiuBvQ==", "nonce": "vhdRd8t0VE8FqZI06PrFYw==", "tag": "gRdGr8RM2gpP6iYFKr/vjA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "lxs4YJQ=", "salt": "+pDcyVJzw87P4qwPGTuTvQ==", "nonce": "WkDUiHb8k5miqq90wqZ0jQ==", "tag": "mFfOlH+mdyfbptQJivpK6Q=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "ozvHmgN3XYk=", "salt": "vSQXw/Diss+kGFIqppZRaw==", "nonce": "xOYKr0O4kTOUMITlq8HB/Q==", "tag": "R+miZN0QYArzt9wO+PKosQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "NDIlddSFVl62+DcQrPnDHQ==", "nonce": "myG6zutxrDZhX/rtKidCJg==", "tag": "OI+05ttT7fOjksjMy2TkJg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "HLL/aD3NQSixbyMce9CvbA==", "nonce": "SokamyCxI4MLeKN5gS/3hQ==", "tag": "wZb3oIjhjuIV0ni1Nae0Sg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "skBtAuo=", "salt": "P0EuPtyR1YWLdJfsqIJAaw==", "nonce": "tvNZ1CPb0Aib6ZirfPlPRQ==", "tag": "S7iwwsS4DXm/yzkx4Gj83w=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "lms=", "salt": "zpzwkBEP+kVTSlrTn8f/Mw==", "nonce": "ohjBeJ4dl1/tW4S5I4oEng==", "tag": "izhlybxiBjRzvQDKHtOXtw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "UrQ=", "salt": "zbcmQVGxMLD9nHQUbM4rHw==", "nonce": "rZMo0Dkn4Q3/gs2ldXwwfA==", "tag": "lStkiWohyIQ7Yc0dfXlfFw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "V28=", "salt": "QHg+8U0mVxdavhDlHqtsvw==", "nonce": "7Pzuz4Bq2yqMYdxV19soGw==", "tag": "o9O78qDMWBRmMxMrr3fcUQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "SCVzAW85V9M=", "salt": "zEJnqzO+O6Lyp7kqsX6HxA==", "nonce": "qqQy/GAha9Xiq8iDICVxYQ==", "tag": "X2e5vBiH7vWn7RC8dt0wGA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "kR8S", "salt": "qtdbUwNIUE6DxvlTWGz9vw==", "nonce": "Ti83TcCXRUxnYK4SMzwc/w==", "tag": "iAaDUeURsFxQLE1D2r5gOQ=="}</t>
+  </si>
+  <si>
+    <t>tamthatakrala30505p</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "oMfsL6Wv5EnQqA==", "salt": "frt7GwaAQX8s/OsP1hKDXg==", "nonce": "FVL3aMrbLRzYsXq3zrT/AQ==", "tag": "GNaqbBFagEAUkUetQnMmWg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "ywk/EzkEHTNJVA==", "salt": "eIBKHpBoq1NPTtQvJj6ljA==", "nonce": "+BXSSFdHML6PgKMM9Y3XVg==", "tag": "UPvSZguzp2IfUFFKJ22vLg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "yAKDkO6mmGVQbTg=", "salt": "SfK30gs2pnb8+RJHWn5U5g==", "nonce": "IsSWTp5vzzUp8FE13cFZwA==", "tag": "XsG8ilxPMuk8rxpCP5U41w=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "GUgw0Zs=", "salt": "rVfzSJsNOIvp5kHnNCaEKA==", "nonce": "bII3bzSdIK5hrNL6G+htHw==", "tag": "38N85LV6WfxQjIonAGXTnQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "cGQxa3fR", "salt": "ulMxsuOO8J0jGx3R2eDSxA==", "nonce": "Sw1kwjG0HKf3CfJKJS7SdA==", "tag": "9aAgx+qdsQ8m8Fv16JNBTA=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "raTh8ubTKFH+gTYB9IrzuQ==", "nonce": "br3g3LsJfB9B/yiQHfccDA==", "tag": "uYFRHGzTj6uxhLSd+kJFOg=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "", "salt": "zHj2232YU/dsr+yesGliow==", "nonce": "hTUmRajMaDCV68EOIcqlGw==", "tag": "VkN1HSd/ChNylb7hFGUKIw=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "tX8nhD9a", "salt": "ocdOpVB3J/HlO+rsMrh4Mw==", "nonce": "qFMhfIP4Bs6n/zXaD7eeIg==", "tag": "lkgzBYg0R6oPsAbT3bhxXQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "Vio=", "salt": "M5uK/xQyzQEhIcWYOjoI1Q==", "nonce": "gvg26bHQBSnY7Sghocr56g==", "tag": "9ZaPKfw7wfAmh0ko68YcNQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "/2k=", "salt": "TqGZDyA3Eun/0aqs1HF9FA==", "nonce": "7TyBLHgphcQt7UiLoguNmw==", "tag": "SdA4VRuqlQzmIMdttGDD5g=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "o3k=", "salt": "CFAgNR6xuD0rHQSKmrjEww==", "nonce": "QgybVdvt6SKFwrHausl0bg==", "tag": "XsPK2+zMOCXhE4WAyN75kQ=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "iYlmvYEH/Pk=", "salt": "8ZXPnihvV2YuOdGeqBzFUQ==", "nonce": "+GvOFbrfTczUVhoHUKmL0g==", "tag": "47w2eFnL49wc1wwji2F54A=="}</t>
+  </si>
+  <si>
+    <t>{"cipher_text": "yknr", "salt": "znqB9U7QoWIXfN3vAU5uog==", "nonce": "blrFT8kgrFJBLfsEBi2cUw==", "tag": "yq1HNASeyYamdg+tpmnKDQ=="}</t>
+  </si>
+  <si>
+    <t>tamthikasrkot10504p</t>
   </si>
 </sst>
 </file>
@@ -471,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,6 +945,358 @@
         <v>41</v>
       </c>
     </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
